--- a/Dataset/Folds/Fold_3/Excel/10.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/10.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6441" uniqueCount="972">
   <si>
     <t>Doi</t>
   </si>
@@ -2887,6 +2887,491 @@
   </si>
   <si>
     <t>[William R.%Mills%NULL%1,                          Janet M.%Buccola%NULL%1,                          Susan%Sender%NULL%1,                          Joseph%Lichtefeld%NULL%1,                          Nicholas%Romano%NULL%1,                          Karen%Reynolds%NULL%1,                          Melissa%Price%NULL%1,                          Jennifer%Phipps%NULL%1,                          Leigh%White%NULL%1,                          Shauen%Howard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel J%Escobar%Daniel.escobar@pennmedicine.upenn.edu%1,                           Maria%Lanzi%NULL%1,                           Pouné%Saberi%NULL%1,                           Ruby%Love%NULL%1,                           Darren R%Linkin%NULL%1,                           John J%Kelly%NULL%1,                           Darshana%Jhala%NULL%1,                           Valerianna%Amorosa%NULL%1,                           Mary%Hofmann%NULL%1,                           Jeffrey B%Doyon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[James L.%Rudolph%NULL%1,                           Christopher W.%Halladay%NULL%1,                           Malisa%Barber%NULL%1,                           Kevin W.%McConeghy%NULL%1,                           Vince%Mor%NULL%1,                           Aman%Nanda%NULL%1,                           Stefan%Gravenstein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paula%Eckardt%NULL%1,                           Rachel%Guran%NULL%1,                           Jon%Hennemyre%NULL%1,                           Roshan%Arikupurathu%NULL%1,                           Julie%Poveda%NULL%1,                           Nancimae%Miller%NULL%1,                           Randy%Katz%NULL%1,                           Judith%Frum%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carson%Telford%NULL%1,                           Udodirim%Onwubiko%NULL%1,                           David%Holland%NULL%1,                           Kim%Turner%NULL%1,                           Juliana%Prieto%NULL%1,                           Sasha%Smith%NULL%1,                           Jane%Yoon%NULL%1,                           Wecheeta%Brown%NULL%1,                           Allison%Chamberlain%NULL%1,                           Neel%Gandhi%NULL%1,                           Shamimul%Khan%NULL%1,                           Steve%Williams%NULL%1,                           Fazle%Khan%NULL%1,                           Sarita%Shah%NULL%1,                            C. T.%Telford%null%1,                            U.% Onwubiko%null%1,                            D.% Holland%null%1,                            K.% Turner%null%1,                            J.% Prieto%null%1,                            S.% Smith%null%1,                            J.% Yoon%null%1,                            W.% Brown%null%1,                            A.% Chamberlain%null%1,                            N.% Gandhi%null%1,                            S.% Khan%null%1,                            S.% Williams%null%1,                            F.% Khan%null%1,                            S. % Shah%null%1,                           C. T.%Telford%null%1,                           U.% Onwubiko%null%1,                           D.% Holland%null%1,                           K.% Turner%null%1,                           J.% Prieto%null%1,                           S.% Smith%null%1,                           J.% Yoon%null%1,                           W.% Brown%null%1,                           A.% Chamberlain%null%1,                           N.% Gandhi%null%1,                           S.% Khan%null%1,                           S.% Williams%null%1,                           F.% Khan%null%1,                           S. % Shah%null%1,          C. T.%Telford%null%1,          U.% Onwubiko%null%1,          D.% Holland%null%1,          K.% Turner%null%1,          J.% Prieto%null%1,          S.% Smith%null%1,          J.% Yoon%null%1,          W.% Brown%null%1,          A.% Chamberlain%null%1,          N.% Gandhi%null%1,          S.% Khan%null%1,          S.% Williams%null%1,          F.% Khan%null%1,          S. % Shah%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandra M.%Shi%NULL%1,                           Innokentiy%Bakaev%NULL%1,                           Helen%Chen%NULL%1,                           Thomas G.%Travison%NULL%1,                           Sarah D.%Berry%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%0,                           Dustin W.%Currie%NULL%0,                           Shauna%Clark%NULL%0,                           Sargis%Pogosjans%NULL%0,                           Meagan%Kay%NULL%0,                           Noah G.%Schwartz%NULL%0,                           James%Lewis%NULL%0,                           Atar%Baer%NULL%0,                           Vance%Kawakami%NULL%0,                           Margaret D.%Lukoff%NULL%0,                           Jessica%Ferro%NULL%0,                           Claire%Brostrom-Smith%NULL%0,                           Thomas D.%Rea%NULL%1,                           Michael R.%Sayre%NULL%1,                           Francis X.%Riedo%NULL%0,                           Denny%Russell%NULL%0,                           Brian%Hiatt%NULL%0,                           Patricia%Montgomery%NULL%0,                           Agam K.%Rao%NULL%0,                           Eric J.%Chow%NULL%0,                           Farrell%Tobolowsky%NULL%0,                           Michael J.%Hughes%NULL%1,                           Ana C.%Bardossy%NULL%0,                           Lisa P.%Oakley%NULL%0,                           Jesica R.%Jacobs%NULL%0,                           Nimalie D.%Stone%NULL%1,                           Sujan C.%Reddy%NULL%0,                           John A.%Jernigan%NULL%0,                           Margaret A.%Honein%NULL%0,                           Thomas A.%Clark%NULL%0,                           Jeffrey S.%Duchin%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathan M.%Stall%nathan.stall@sinaihealth.ca%1,                           Carolyn%Farquharson%NULL%2,                           Carolyn%Farquharson%NULL%0,                           Chris%Fan‐Lun%NULL%1,                           Lesley%Wiesenfeld%NULL%1,                           Carla A.%Loftus%NULL%1,                           Dylan%Kain%NULL%1,                           Jennie%Johnstone%NULL%1,                           Liz%McCreight%NULL%1,                           Russell D.%Goldman%NULL%1,                           Ramona%Mahtani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hubert%Blain%NULL%1,                           Yves%Rolland%NULL%1,                           Edouard%Tuaillon%NULL%1,                           Nadia%Giacosa%NULL%1,                           Mylène%Albrand%NULL%1,                           Audrey%Jaussent%NULL%1,                           Athanase%Benetos%NULL%1,                           Stéphanie%Miot%NULL%1,                           Jean%Bousquet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillaume%Sacco%NULL%1,                           Gonzague%Foucault%NULL%1,                           Olivier%Briere%NULL%1,                           Cédric%Annweiler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[R.%Guery%NULL%1,                           C.%Delaye%NULL%1,                           N.%Brule%NULL%1,                           V.%Nael%NULL%1,                           L.%Castain%NULL%1,                           F.%Raffi%NULL%1,                           L.%De Decker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Klein%anke.klein@uke.de%1,                           C.%Edler%NULL%1,                           A.%Fitzek%NULL%1,                           D.%Fröb%NULL%1,                           A.%Heinemann%NULL%1,                           K.%Meißner%NULL%1,                           H.%Mushumba%NULL%1,                           K.%Püschel%NULL%1,                           A. S.%Schröder%NULL%1,                           J. P.%Sperhake%NULL%1,                           F.%Ishorst-Witte%NULL%1,                           M.%Aepfelbacher%NULL%1,                           F.%Heinrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sean P%Kennelly%Sean.Kennelly@tuh.ie%1,                           Adam H%Dyer%dyera@tcd.ie%1,                           Claire%Noonan%claire.noonan@tuh.ie%2,                           Claire%Noonan%claire.noonan@tuh.ie%0,                           Ruth%Martin%ruth.martin1@hse.ie%1,                           Siobhan M%Kennelly%siobhan.kennelly1@hse.ie%1,                           Alan%Martin%alanmartin@beaumont.ie%1,                           Desmond%O’Neill%NULL%1,                           Aoife%Fallon%aoife.fallon1@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%Nouvenne%NULL%1,                           Andrea%Ticinesi%NULL%1,                           Alberto%Parise%NULL%1,                           Beatrice%Prati%NULL%1,                           Marcello%Esposito%NULL%1,                           Valentina%Cocchi%NULL%1,                           Emanuele%Crisafulli%NULL%1,                           Annalisa%Volpi%NULL%1,                           Sandra%Rossi%NULL%1,                           Elena Giovanna%Bignami%NULL%1,                           Marco%Baciarello%NULL%1,                           Ettore%Brianti%NULL%1,                           Massimo%Fabi%NULL%1,                           Tiziana%Meschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicola%Veronese%NULL%1,                           Luca Gino%Sbrogiò%NULL%1,                           Roberto%Valle%NULL%1,                           Laura%Marin%NULL%1,                           Elena%Boscolo Fiore%NULL%1,                           Andrea%Tiozzo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Laura W.%van Buul%NULL%1,                           Judith H.%van den Besselaar%NULL%2,                           Judith H.%van den Besselaar%NULL%0,                           Fleur M. H. P. H.%Koene%NULL%1,                           Bianca M.%Buurman%NULL%1,                           Cees M. P. M.%Hertogh%NULL%1,                           Martin%Smalbrugge%NULL%1,                           Jeanine J. S.%Rutten%NULL%1,                           Elke M.%den Boogert%NULL%1,                           Michel D.%Wissing%NULL%1,                           Ariene%Rietveld%NULL%1,                           Mariska W. W.%van Elsakker%NULL%1,                           Marga M. G.%Nonneman%NULL%1,                           Florien%van Eeden%NULL%1,                           Saskia%van de Merwe%NULL%1,                           Sophie L.%Niemansburg%NULL%1,                           Ewout%Fanoy%NULL%1,                           Hinke S.%Bootsma%NULL%1,                           Nicoline%van der Hagen%NULL%1,                           Mariska%Petrignani%NULL%1,                           Jessica Edwards%van Muijen%NULL%1,                           Karolien E. M.%Biesheuvel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shin Young%Park%NULL%1,                           Gawon%Choi%NULL%2,                           Gawon%Choi%NULL%0,                           Hyeyoung%Lee%NULL%2,                           Hyeyoung%Lee%NULL%0,                           Na-young%Kim%NULL%2,                           Na-young%Kim%NULL%0,                           Seon-young%Lee%NULL%2,                           Seon-young%Lee%NULL%0,                           Kyungnam%Kim%NULL%2,                           Kyungnam%Kim%NULL%0,                           Soyoung%Shin%NULL%2,                           Soyoung%Shin%NULL%0,                           Eunsu%Jang%NULL%2,                           Eunsu%Jang%NULL%0,                           YoungSin%Moon%NULL%2,                           YoungSin%Moon%NULL%0,                           KwangHwan%Oh%NULL%2,                           KwangHwan%Oh%NULL%0,                           JaeRin%Choi%NULL%2,                           JaeRin%Choi%NULL%0,                           Sangeun%Lee%NULL%2,                           Sangeun%Lee%NULL%0,                           Young-Man%Kim%NULL%2,                           Young-Man%Kim%NULL%0,                           Jieun%Kim%NULL%2,                           Jieun%Kim%NULL%0,                           Seonju%Yi%NULL%2,                           Seonju%Yi%NULL%0,                           Jin%Gwack%NULL%2,                           Jin%Gwack%NULL%0,                           Ok%Park%NULL%2,                           Ok%Park%NULL%0,                           Young Joon%Park%NULL%2,                           Young Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rok%Song%NULL%1,                           Hee-Sook%Kim%NULL%2,                           Hee-Sook%Kim%NULL%0,                           Seok-Ju%Yoo%NULL%2,                           Seok-Ju%Yoo%NULL%0,                           Kwan%Lee%NULL%2,                           Kwan%Lee%NULL%0,                           Ji-Hyuk%Park%NULL%2,                           Ji-Hyuk%Park%NULL%0,                           Joon Ho%Jang%NULL%2,                           Joon Ho%Jang%NULL%0,                           Gyoung-Sook%Ahn%NULL%2,                           Gyoung-Sook%Ahn%NULL%0,                           Jun-Nyun%Kim%NULL%2,                           Jun-Nyun%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Blanca%Borras-Bermejo%NULL%1,                           Xavier%Martínez-Gómez%NULL%1,                           María Gutierrez%San Miguel%NULL%1,                           Juliana%Esperalba%NULL%1,                           Andrés%Antón%NULL%1,                           Elisabet%Martin%NULL%1,                           Marta%Selvi%NULL%1,                           María José%Abadías%NULL%1,                           Antonio%Román%NULL%1,                           Tomàs%Pumarola%NULL%1,                           Magda%Campins%NULL%1,                           Benito%Almirante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Bernabeu-Wittel%NULL%1,                           J.E.%Ternero-Vega%NULL%1,                           P.%Díaz-Jiménez%NULL%1,                           C.%Conde-Guzmán%NULL%1,                           M.D.%Nieto-Martín%NULL%1,                           L.%Moreno-Gaviño%NULL%1,                           J.%Delgado-Cuesta%NULL%1,                           M.%Rincón-Gómez%NULL%1,                           L.%Giménez-Miranda%NULL%1,                           M.D.%Navarro-Amuedo%NULL%1,                           M.M.%Muñoz-García%NULL%1,                           S.%Calzón-Fernández%NULL%1,                           M.%Ollero-Baturone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shamez N%Ladhani%shamez.ladhani@phe.gov.uk%1,                           J.Yimmy%Chow%NULL%1,                           Roshni%Janarthanan%NULL%1,                           Jonathan%Fok%NULL%1,                           Emma%Crawley-Boevey%NULL%1,                           Amoolya%Vusirikala%NULL%1,                           Elena%Fernandez%NULL%1,                           Marina Sanchez%Perez%NULL%1,                           Suzanne%Tang%NULL%1,                           Kate%Dun-Campbell%NULL%1,                           Edward Wynne-%Evans%NULL%1,                           Anita%Bell%NULL%1,                           Bharat%Patel%NULL%1,                           Zahin%Amin-Chowdhury%NULL%1,                           Felicity%Aiano%NULL%1,                           Karthik%Paranthaman%NULL%1,                           Thomas%Ma%NULL%1,                           Maria%Saavedra-Campos%NULL%1,                           Richard%Myers%NULL%1,                           Joanna%Ellis%NULL%2,                           Angie%Lackenby%NULL%1,                           Robin%Gopal%NULL%1,                           Monika%Patel%NULL%1,                           Colin%Brown%NULL%1,                           Meera%Chand%NULL%1,                           Kevin%Brown%NULL%1,                           Mary E%Ramsay%NULL%1,                           Susan%Hopkins%NULL%2,                           Nandini%Shetty%NULL%1,                           Maria%Zambon%NULL%2]</t>
+  </si>
+  <si>
+    <t>[N.S.N.%Graham%NULL%1,                           C.%Junghans%NULL%1,                           R.%Downes%NULL%1,                           C.%Sendall%NULL%1,                           H.%Lai%NULL%1,                           A.%McKirdy%NULL%1,                           P.%Elliott%NULL%1,                           R.%Howard%NULL%1,                           D.%Wingfield%NULL%1,                           M.%Priestman%NULL%1,                           M.%Ciechonska%NULL%1,                           L.%Cameron%NULL%1,                           M.%Storch%NULL%1,                           M.A.%Crone%NULL%1,                           P.S.%Freemont%NULL%1,                           P.%Randell%NULL%1,                           R.%McLaren%NULL%1,                           N.%Lang%NULL%1,                           S.%Ladhani%NULL%1,                           F.%Sanderson%NULL%1,                           D.J.%Sharp%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Agnes%Marossy%agnesmarossy@nhs.net%1,                           Stefan%Rakowicz%NULL%1,                           Angela%Bhan%NULL%1,                           Sarah%Noon%NULL%1,                           Amanda%Rees%NULL%1,                           Manjinder%Virk%NULL%1,                           Ayazali%Nazafi%NULL%1,                           Evie%Hay%NULL%1,                           Louise%de Thomasson%NULL%1,                           Christina%Windle%NULL%1,                           Mark%Zuckerman%Mark.Zuckerman@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Laura%Shallcross%NULL%1,                           Danielle%Burke%NULL%1,                           Owen%Abbott%NULL%1,                           Alasdair%Donaldson%NULL%1,                           Gemma%Hallatt%NULL%1,                           Andrew%Hayward%NULL%1,                           Susan%Hopkins%NULL%0,                           Maria%Krutikov%NULL%1,                           Katie%Sharp%NULL%1,                           Leone%Wardman%NULL%1,                           Sapphira%Thorne%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mahesh C%Patel%mp3@uic.edu%1,                           Lelia H%Chaisson%NULL%1,                           Scott%Borgetti%NULL%1,                           Deborah%Burdsall%NULL%1,                           Rashmi K%Chugh%NULL%1,                           Christopher R%Hoff%NULL%1,                           Elizabeth B%Murphy%NULL%1,                           Emily A%Murskyj%NULL%1,                           Shannon%Wilson%NULL%1,                           Joe%Ramos%NULL%1,                           Lynn%Akker%NULL%1,                           Debra%Bryars%NULL%1,                           Evonda%Thomas-Smith%NULL%1,                           Susan C%Bleasdale%NULL%1,                           Ngozi O%Ezike%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Temkin‐Greener%helena_temkin-greener@urmc.rochester.edu%1,                           Wenhan%Guo%NULL%2,                           Wenhan%Guo%NULL%0,                           Yunjiao%Mao%NULL%1,                           Xueya%Cai%NULL%1,                           Yue%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana A.%Weil%anaweil@uw.edu%1,                           Kira L.%Newman%NULL%2,                           Kira L.%Newman%NULL%0,                           Thuan D.%Ong%NULL%1,                           Giana H.%Davidson%NULL%1,                           Jennifer%Logue%NULL%1,                           Elisabeth%Brandstetter%NULL%1,                           Ariana%Magedson%NULL%1,                           Dylan%McDonald%NULL%1,                           Denise J.%McCulloch%NULL%1,                           Santiago%Neme%NULL%1,                           James%Lewis%NULL%0,                           Jeff S.%Duchin%NULL%1,                           Weizhi%Zhong%NULL%1,                           Lea M.%Starita%NULL%1,                           Trevor%Bedford%NULL%1,                           Alison C.%Roxby%NULL%1,                           Helen Y.%Chu%helenchu@uw.edu%2]</t>
+  </si>
+  <si>
+    <t>[Guillermo V.%Sanchez%NULL%1,                           Caitlin%Biedron%NULL%1,                           Lauren R.%Fink%NULL%1,                           Kelly M.%Hatfield%NULL%1,                           Jordan Micah F.%Polistico%NULL%1,                           Monica P.%Meyer%NULL%1,                           Rebecca S.%Noe%NULL%1,                           Casey E.%Copen%NULL%1,                           Amanda K.%Lyons%NULL%1,                           Gonzalo%Gonzalez%NULL%1,                           Keith%Kiama%NULL%1,                           Mark%Lebednick%NULL%1,                           Bonnie K.%Czander%NULL%1,                           Amen%Agbonze%NULL%1,                           Aimee R.%Surma%NULL%1,                           Avnish%Sandhu%NULL%1,                           Valerie H.%Mika%NULL%1,                           Tyler%Prentiss%NULL%1,                           John%Zervos%NULL%1,                           Donia A.%Dalal%NULL%1,                           Amber M.%Vasquez%NULL%1,                           Sujan C.%Reddy%NULL%0,                           John%Jernigan%NULL%1,                           Paul E.%Kilgore%NULL%1,                           Marcus J.%Zervos%NULL%1,                           Teena%Chopra%NULL%1,                           Carla P.%Bezold%NULL%1,                           Najibah K.%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janice K%Louie%Janice.louie@sfdph.org%1,                           Hyman M%Scott%NULL%1,                           Amie%DuBois%NULL%1,                           Natalya%Sturtz%NULL%1,                           Wendy%Lu%NULL%1,                           Juliet%Stoltey%NULL%1,                           Godfred%Masinde%NULL%1,                           Stephanie%Cohen%NULL%1,                           Darpun%Sachdev%NULL%1,                           Susan%Philip%NULL%1,                           Naveena%Bobba%NULL%1,                           Tomas%Aragon%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Scott A%Goldberg%sagoldberg@bwh.harvard.edu%1,                           Jochen%Lennerz%NULL%1,                           Michael%Klompas%NULL%1,                           Eden%Mark%NULL%1,                           Virginia M%Pierce%NULL%1,                           Ryan W%Thompson%NULL%1,                           Charles T%Pu%NULL%1,                           Lauren L%Ritterhouse%NULL%1,                           Anand%Dighe%NULL%1,                           Eric S%Rosenberg%NULL%1,                           David C%Grabowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amy V.%Dora%NULL%1,                           Alexander%Winnett%NULL%1,                           Lauren P.%Jatt%NULL%1,                           Kusha%Davar%NULL%1,                           Mika%Watanabe%NULL%1,                           Linda%Sohn%NULL%1,                           Hannah S.%Kern%NULL%1,                           Christopher J.%Graber%NULL%1,                           Matthew B.%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Bigelow%NULL%1,                           Olive%Tang%NULL%1,                           Gregory R.%Toci%NULL%1,                           Norberth%Stracker%NULL%1,                           Fatima%Sheikh%NULL%1,                           Kara M.%Jacobs Slifka%NULL%1,                           Shannon A.%Novosad%NULL%1,                           John A.%Jernigan%NULL%0,                           Sujan C.%Reddy%NULL%0,                           Morgan J.%Katz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Feaster%NULL%1,                           Ying-Ying%Goh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William R.%Mills%NULL%1,                           Janet M.%Buccola%NULL%1,                           Susan%Sender%NULL%1,                           Joseph%Lichtefeld%NULL%1,                           Nicholas%Romano%NULL%1,                           Karen%Reynolds%NULL%1,                           Melissa%Price%NULL%1,                           Jennifer%Phipps%NULL%1,                           Leigh%White%NULL%1,                           Shauen%Howard%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel J%Escobar%Daniel.escobar@pennmedicine.upenn.edu%1,                            Maria%Lanzi%NULL%1,                            Pouné%Saberi%NULL%1,                            Ruby%Love%NULL%1,                            Darren R%Linkin%NULL%1,                            John J%Kelly%NULL%1,                            Darshana%Jhala%NULL%1,                            Valerianna%Amorosa%NULL%1,                            Mary%Hofmann%NULL%1,                            Jeffrey B%Doyon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[James L.%Rudolph%NULL%1,                            Christopher W.%Halladay%NULL%1,                            Malisa%Barber%NULL%1,                            Kevin W.%McConeghy%NULL%1,                            Vince%Mor%NULL%1,                            Aman%Nanda%NULL%1,                            Stefan%Gravenstein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paula%Eckardt%NULL%1,                            Rachel%Guran%NULL%1,                            Jon%Hennemyre%NULL%1,                            Roshan%Arikupurathu%NULL%1,                            Julie%Poveda%NULL%1,                            Nancimae%Miller%NULL%1,                            Randy%Katz%NULL%1,                            Judith%Frum%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carson%Telford%NULL%1,                            Udodirim%Onwubiko%NULL%1,                            David%Holland%NULL%1,                            Kim%Turner%NULL%1,                            Juliana%Prieto%NULL%1,                            Sasha%Smith%NULL%1,                            Jane%Yoon%NULL%1,                            Wecheeta%Brown%NULL%1,                            Allison%Chamberlain%NULL%1,                            Neel%Gandhi%NULL%1,                            Shamimul%Khan%NULL%1,                            Steve%Williams%NULL%1,                            Fazle%Khan%NULL%1,                            Sarita%Shah%NULL%1,                             C. T.%Telford%null%1,                             U.% Onwubiko%null%1,                             D.% Holland%null%1,                             K.% Turner%null%1,                             J.% Prieto%null%1,                             S.% Smith%null%1,                             J.% Yoon%null%1,                             W.% Brown%null%1,                             A.% Chamberlain%null%1,                             N.% Gandhi%null%1,                             S.% Khan%null%1,                             S.% Williams%null%1,                             F.% Khan%null%1,                             S. % Shah%null%1,                            C. T.%Telford%null%1,                            U.% Onwubiko%null%1,                            D.% Holland%null%1,                            K.% Turner%null%1,                            J.% Prieto%null%1,                            S.% Smith%null%1,                            J.% Yoon%null%1,                            W.% Brown%null%1,                            A.% Chamberlain%null%1,                            N.% Gandhi%null%1,                            S.% Khan%null%1,                            S.% Williams%null%1,                            F.% Khan%null%1,                            S. % Shah%null%1,           C. T.%Telford%null%1,           U.% Onwubiko%null%1,           D.% Holland%null%1,           K.% Turner%null%1,           J.% Prieto%null%1,           S.% Smith%null%1,           J.% Yoon%null%1,           W.% Brown%null%1,           A.% Chamberlain%null%1,           N.% Gandhi%null%1,           S.% Khan%null%1,           S.% Williams%null%1,           F.% Khan%null%1,           S. % Shah%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandra M.%Shi%NULL%1,                            Innokentiy%Bakaev%NULL%1,                            Helen%Chen%NULL%1,                            Thomas G.%Travison%NULL%1,                            Sarah D.%Berry%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%0,                            Dustin W.%Currie%NULL%0,                            Shauna%Clark%NULL%0,                            Sargis%Pogosjans%NULL%0,                            Meagan%Kay%NULL%0,                            Noah G.%Schwartz%NULL%0,                            James%Lewis%NULL%0,                            Atar%Baer%NULL%0,                            Vance%Kawakami%NULL%0,                            Margaret D.%Lukoff%NULL%0,                            Jessica%Ferro%NULL%0,                            Claire%Brostrom-Smith%NULL%0,                            Thomas D.%Rea%NULL%1,                            Michael R.%Sayre%NULL%1,                            Francis X.%Riedo%NULL%0,                            Denny%Russell%NULL%0,                            Brian%Hiatt%NULL%0,                            Patricia%Montgomery%NULL%0,                            Agam K.%Rao%NULL%0,                            Eric J.%Chow%NULL%0,                            Farrell%Tobolowsky%NULL%0,                            Michael J.%Hughes%NULL%1,                            Ana C.%Bardossy%NULL%0,                            Lisa P.%Oakley%NULL%0,                            Jesica R.%Jacobs%NULL%0,                            Nimalie D.%Stone%NULL%1,                            Sujan C.%Reddy%NULL%0,                            John A.%Jernigan%NULL%0,                            Margaret A.%Honein%NULL%0,                            Thomas A.%Clark%NULL%0,                            Jeffrey S.%Duchin%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathan M.%Stall%nathan.stall@sinaihealth.ca%1,                            Carolyn%Farquharson%NULL%2,                            Carolyn%Farquharson%NULL%0,                            Chris%Fan‐Lun%NULL%1,                            Lesley%Wiesenfeld%NULL%1,                            Carla A.%Loftus%NULL%1,                            Dylan%Kain%NULL%1,                            Jennie%Johnstone%NULL%1,                            Liz%McCreight%NULL%1,                            Russell D.%Goldman%NULL%1,                            Ramona%Mahtani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hubert%Blain%NULL%1,                            Yves%Rolland%NULL%1,                            Edouard%Tuaillon%NULL%1,                            Nadia%Giacosa%NULL%1,                            Mylène%Albrand%NULL%1,                            Audrey%Jaussent%NULL%1,                            Athanase%Benetos%NULL%1,                            Stéphanie%Miot%NULL%1,                            Jean%Bousquet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillaume%Sacco%NULL%1,                            Gonzague%Foucault%NULL%1,                            Olivier%Briere%NULL%1,                            Cédric%Annweiler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[R.%Guery%NULL%1,                            C.%Delaye%NULL%1,                            N.%Brule%NULL%1,                            V.%Nael%NULL%1,                            L.%Castain%NULL%1,                            F.%Raffi%NULL%1,                            L.%De Decker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Klein%anke.klein@uke.de%1,                            C.%Edler%NULL%1,                            A.%Fitzek%NULL%1,                            D.%Fröb%NULL%1,                            A.%Heinemann%NULL%1,                            K.%Meißner%NULL%1,                            H.%Mushumba%NULL%1,                            K.%Püschel%NULL%1,                            A. S.%Schröder%NULL%1,                            J. P.%Sperhake%NULL%1,                            F.%Ishorst-Witte%NULL%1,                            M.%Aepfelbacher%NULL%1,                            F.%Heinrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sean P%Kennelly%Sean.Kennelly@tuh.ie%1,                            Adam H%Dyer%dyera@tcd.ie%1,                            Claire%Noonan%claire.noonan@tuh.ie%2,                            Claire%Noonan%claire.noonan@tuh.ie%0,                            Ruth%Martin%ruth.martin1@hse.ie%1,                            Siobhan M%Kennelly%siobhan.kennelly1@hse.ie%1,                            Alan%Martin%alanmartin@beaumont.ie%1,                            Desmond%O’Neill%NULL%1,                            Aoife%Fallon%aoife.fallon1@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%Nouvenne%NULL%1,                            Andrea%Ticinesi%NULL%1,                            Alberto%Parise%NULL%1,                            Beatrice%Prati%NULL%1,                            Marcello%Esposito%NULL%1,                            Valentina%Cocchi%NULL%1,                            Emanuele%Crisafulli%NULL%1,                            Annalisa%Volpi%NULL%1,                            Sandra%Rossi%NULL%1,                            Elena Giovanna%Bignami%NULL%1,                            Marco%Baciarello%NULL%1,                            Ettore%Brianti%NULL%1,                            Massimo%Fabi%NULL%1,                            Tiziana%Meschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicola%Veronese%NULL%1,                            Luca Gino%Sbrogiò%NULL%1,                            Roberto%Valle%NULL%1,                            Laura%Marin%NULL%1,                            Elena%Boscolo Fiore%NULL%1,                            Andrea%Tiozzo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Laura W.%van Buul%NULL%1,                            Judith H.%van den Besselaar%NULL%2,                            Judith H.%van den Besselaar%NULL%0,                            Fleur M. H. P. H.%Koene%NULL%1,                            Bianca M.%Buurman%NULL%1,                            Cees M. P. M.%Hertogh%NULL%1,                            Martin%Smalbrugge%NULL%1,                            Jeanine J. S.%Rutten%NULL%1,                            Elke M.%den Boogert%NULL%1,                            Michel D.%Wissing%NULL%1,                            Ariene%Rietveld%NULL%1,                            Mariska W. W.%van Elsakker%NULL%1,                            Marga M. G.%Nonneman%NULL%1,                            Florien%van Eeden%NULL%1,                            Saskia%van de Merwe%NULL%1,                            Sophie L.%Niemansburg%NULL%1,                            Ewout%Fanoy%NULL%1,                            Hinke S.%Bootsma%NULL%1,                            Nicoline%van der Hagen%NULL%1,                            Mariska%Petrignani%NULL%1,                            Jessica Edwards%van Muijen%NULL%1,                            Karolien E. M.%Biesheuvel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shin Young%Park%NULL%1,                            Gawon%Choi%NULL%2,                            Gawon%Choi%NULL%0,                            Hyeyoung%Lee%NULL%2,                            Hyeyoung%Lee%NULL%0,                            Na-young%Kim%NULL%2,                            Na-young%Kim%NULL%0,                            Seon-young%Lee%NULL%2,                            Seon-young%Lee%NULL%0,                            Kyungnam%Kim%NULL%2,                            Kyungnam%Kim%NULL%0,                            Soyoung%Shin%NULL%2,                            Soyoung%Shin%NULL%0,                            Eunsu%Jang%NULL%2,                            Eunsu%Jang%NULL%0,                            YoungSin%Moon%NULL%2,                            YoungSin%Moon%NULL%0,                            KwangHwan%Oh%NULL%2,                            KwangHwan%Oh%NULL%0,                            JaeRin%Choi%NULL%2,                            JaeRin%Choi%NULL%0,                            Sangeun%Lee%NULL%2,                            Sangeun%Lee%NULL%0,                            Young-Man%Kim%NULL%2,                            Young-Man%Kim%NULL%0,                            Jieun%Kim%NULL%2,                            Jieun%Kim%NULL%0,                            Seonju%Yi%NULL%2,                            Seonju%Yi%NULL%0,                            Jin%Gwack%NULL%2,                            Jin%Gwack%NULL%0,                            Ok%Park%NULL%2,                            Ok%Park%NULL%0,                            Young Joon%Park%NULL%2,                            Young Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rok%Song%NULL%1,                            Hee-Sook%Kim%NULL%2,                            Hee-Sook%Kim%NULL%0,                            Seok-Ju%Yoo%NULL%2,                            Seok-Ju%Yoo%NULL%0,                            Kwan%Lee%NULL%2,                            Kwan%Lee%NULL%0,                            Ji-Hyuk%Park%NULL%2,                            Ji-Hyuk%Park%NULL%0,                            Joon Ho%Jang%NULL%2,                            Joon Ho%Jang%NULL%0,                            Gyoung-Sook%Ahn%NULL%2,                            Gyoung-Sook%Ahn%NULL%0,                            Jun-Nyun%Kim%NULL%2,                            Jun-Nyun%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Blanca%Borras-Bermejo%NULL%1,                            Xavier%Martínez-Gómez%NULL%1,                            María Gutierrez%San Miguel%NULL%1,                            Juliana%Esperalba%NULL%1,                            Andrés%Antón%NULL%1,                            Elisabet%Martin%NULL%1,                            Marta%Selvi%NULL%1,                            María José%Abadías%NULL%1,                            Antonio%Román%NULL%1,                            Tomàs%Pumarola%NULL%1,                            Magda%Campins%NULL%1,                            Benito%Almirante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Bernabeu-Wittel%NULL%1,                            J.E.%Ternero-Vega%NULL%1,                            P.%Díaz-Jiménez%NULL%1,                            C.%Conde-Guzmán%NULL%1,                            M.D.%Nieto-Martín%NULL%1,                            L.%Moreno-Gaviño%NULL%1,                            J.%Delgado-Cuesta%NULL%1,                            M.%Rincón-Gómez%NULL%1,                            L.%Giménez-Miranda%NULL%1,                            M.D.%Navarro-Amuedo%NULL%1,                            M.M.%Muñoz-García%NULL%1,                            S.%Calzón-Fernández%NULL%1,                            M.%Ollero-Baturone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shamez N%Ladhani%shamez.ladhani@phe.gov.uk%1,                            J.Yimmy%Chow%NULL%1,                            Roshni%Janarthanan%NULL%1,                            Jonathan%Fok%NULL%1,                            Emma%Crawley-Boevey%NULL%1,                            Amoolya%Vusirikala%NULL%1,                            Elena%Fernandez%NULL%1,                            Marina Sanchez%Perez%NULL%1,                            Suzanne%Tang%NULL%1,                            Kate%Dun-Campbell%NULL%1,                            Edward Wynne-%Evans%NULL%1,                            Anita%Bell%NULL%1,                            Bharat%Patel%NULL%1,                            Zahin%Amin-Chowdhury%NULL%1,                            Felicity%Aiano%NULL%1,                            Karthik%Paranthaman%NULL%1,                            Thomas%Ma%NULL%1,                            Maria%Saavedra-Campos%NULL%1,                            Richard%Myers%NULL%1,                            Joanna%Ellis%NULL%2,                            Angie%Lackenby%NULL%1,                            Robin%Gopal%NULL%1,                            Monika%Patel%NULL%1,                            Colin%Brown%NULL%1,                            Meera%Chand%NULL%1,                            Kevin%Brown%NULL%1,                            Mary E%Ramsay%NULL%1,                            Susan%Hopkins%NULL%2,                            Nandini%Shetty%NULL%1,                            Maria%Zambon%NULL%2]</t>
+  </si>
+  <si>
+    <t>[N.S.N.%Graham%NULL%1,                            C.%Junghans%NULL%1,                            R.%Downes%NULL%1,                            C.%Sendall%NULL%1,                            H.%Lai%NULL%1,                            A.%McKirdy%NULL%1,                            P.%Elliott%NULL%1,                            R.%Howard%NULL%1,                            D.%Wingfield%NULL%1,                            M.%Priestman%NULL%1,                            M.%Ciechonska%NULL%1,                            L.%Cameron%NULL%1,                            M.%Storch%NULL%1,                            M.A.%Crone%NULL%1,                            P.S.%Freemont%NULL%1,                            P.%Randell%NULL%1,                            R.%McLaren%NULL%1,                            N.%Lang%NULL%1,                            S.%Ladhani%NULL%1,                            F.%Sanderson%NULL%1,                            D.J.%Sharp%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Agnes%Marossy%agnesmarossy@nhs.net%1,                            Stefan%Rakowicz%NULL%1,                            Angela%Bhan%NULL%1,                            Sarah%Noon%NULL%1,                            Amanda%Rees%NULL%1,                            Manjinder%Virk%NULL%1,                            Ayazali%Nazafi%NULL%1,                            Evie%Hay%NULL%1,                            Louise%de Thomasson%NULL%1,                            Christina%Windle%NULL%1,                            Mark%Zuckerman%Mark.Zuckerman@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Laura%Shallcross%NULL%1,                            Danielle%Burke%NULL%1,                            Owen%Abbott%NULL%1,                            Alasdair%Donaldson%NULL%1,                            Gemma%Hallatt%NULL%1,                            Andrew%Hayward%NULL%1,                            Susan%Hopkins%NULL%0,                            Maria%Krutikov%NULL%1,                            Katie%Sharp%NULL%1,                            Leone%Wardman%NULL%1,                            Sapphira%Thorne%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mahesh C%Patel%mp3@uic.edu%1,                            Lelia H%Chaisson%NULL%1,                            Scott%Borgetti%NULL%1,                            Deborah%Burdsall%NULL%1,                            Rashmi K%Chugh%NULL%1,                            Christopher R%Hoff%NULL%1,                            Elizabeth B%Murphy%NULL%1,                            Emily A%Murskyj%NULL%1,                            Shannon%Wilson%NULL%1,                            Joe%Ramos%NULL%1,                            Lynn%Akker%NULL%1,                            Debra%Bryars%NULL%1,                            Evonda%Thomas-Smith%NULL%1,                            Susan C%Bleasdale%NULL%1,                            Ngozi O%Ezike%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Temkin‐Greener%helena_temkin-greener@urmc.rochester.edu%1,                            Wenhan%Guo%NULL%2,                            Wenhan%Guo%NULL%0,                            Yunjiao%Mao%NULL%1,                            Xueya%Cai%NULL%1,                            Yue%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana A.%Weil%anaweil@uw.edu%1,                            Kira L.%Newman%NULL%2,                            Kira L.%Newman%NULL%0,                            Thuan D.%Ong%NULL%1,                            Giana H.%Davidson%NULL%1,                            Jennifer%Logue%NULL%1,                            Elisabeth%Brandstetter%NULL%1,                            Ariana%Magedson%NULL%1,                            Dylan%McDonald%NULL%1,                            Denise J.%McCulloch%NULL%1,                            Santiago%Neme%NULL%1,                            James%Lewis%NULL%0,                            Jeff S.%Duchin%NULL%1,                            Weizhi%Zhong%NULL%1,                            Lea M.%Starita%NULL%1,                            Trevor%Bedford%NULL%1,                            Alison C.%Roxby%NULL%1,                            Helen Y.%Chu%helenchu@uw.edu%2]</t>
+  </si>
+  <si>
+    <t>[Guillermo V.%Sanchez%NULL%1,                            Caitlin%Biedron%NULL%1,                            Lauren R.%Fink%NULL%1,                            Kelly M.%Hatfield%NULL%1,                            Jordan Micah F.%Polistico%NULL%1,                            Monica P.%Meyer%NULL%1,                            Rebecca S.%Noe%NULL%1,                            Casey E.%Copen%NULL%1,                            Amanda K.%Lyons%NULL%1,                            Gonzalo%Gonzalez%NULL%1,                            Keith%Kiama%NULL%1,                            Mark%Lebednick%NULL%1,                            Bonnie K.%Czander%NULL%1,                            Amen%Agbonze%NULL%1,                            Aimee R.%Surma%NULL%1,                            Avnish%Sandhu%NULL%1,                            Valerie H.%Mika%NULL%1,                            Tyler%Prentiss%NULL%1,                            John%Zervos%NULL%1,                            Donia A.%Dalal%NULL%1,                            Amber M.%Vasquez%NULL%1,                            Sujan C.%Reddy%NULL%0,                            John%Jernigan%NULL%1,                            Paul E.%Kilgore%NULL%1,                            Marcus J.%Zervos%NULL%1,                            Teena%Chopra%NULL%1,                            Carla P.%Bezold%NULL%1,                            Najibah K.%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janice K%Louie%Janice.louie@sfdph.org%1,                            Hyman M%Scott%NULL%1,                            Amie%DuBois%NULL%1,                            Natalya%Sturtz%NULL%1,                            Wendy%Lu%NULL%1,                            Juliet%Stoltey%NULL%1,                            Godfred%Masinde%NULL%1,                            Stephanie%Cohen%NULL%1,                            Darpun%Sachdev%NULL%1,                            Susan%Philip%NULL%1,                            Naveena%Bobba%NULL%1,                            Tomas%Aragon%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Scott A%Goldberg%sagoldberg@bwh.harvard.edu%1,                            Jochen%Lennerz%NULL%1,                            Michael%Klompas%NULL%1,                            Eden%Mark%NULL%1,                            Virginia M%Pierce%NULL%1,                            Ryan W%Thompson%NULL%1,                            Charles T%Pu%NULL%1,                            Lauren L%Ritterhouse%NULL%1,                            Anand%Dighe%NULL%1,                            Eric S%Rosenberg%NULL%1,                            David C%Grabowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amy V.%Dora%NULL%1,                            Alexander%Winnett%NULL%1,                            Lauren P.%Jatt%NULL%1,                            Kusha%Davar%NULL%1,                            Mika%Watanabe%NULL%1,                            Linda%Sohn%NULL%1,                            Hannah S.%Kern%NULL%1,                            Christopher J.%Graber%NULL%1,                            Matthew B.%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Bigelow%NULL%1,                            Olive%Tang%NULL%1,                            Gregory R.%Toci%NULL%1,                            Norberth%Stracker%NULL%1,                            Fatima%Sheikh%NULL%1,                            Kara M.%Jacobs Slifka%NULL%1,                            Shannon A.%Novosad%NULL%1,                            John A.%Jernigan%NULL%0,                            Sujan C.%Reddy%NULL%0,                            Morgan J.%Katz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Feaster%NULL%1,                            Ying-Ying%Goh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William R.%Mills%NULL%1,                            Janet M.%Buccola%NULL%1,                            Susan%Sender%NULL%1,                            Joseph%Lichtefeld%NULL%1,                            Nicholas%Romano%NULL%1,                            Karen%Reynolds%NULL%1,                            Melissa%Price%NULL%1,                            Jennifer%Phipps%NULL%1,                            Leigh%White%NULL%1,                            Shauen%Howard%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursing homes and long-term care facilities represent highly vulnerable environments for respiratory disease outbreaks, such as COVID-19. We describe a COVID-19 outbreak in a nursing home that was rapidly contained by using a universal testing strategy of all residents and nursing home staff.
+</t>
+  </si>
+  <si>
+    <t>[Daniel J%Escobar%Daniel.escobar@pennmedicine.upenn.edu%0, Maria%Lanzi%NULL%1, Pouné%Saberi%NULL%1, Ruby%Love%NULL%1, Darren R%Linkin%NULL%1, John J%Kelly%NULL%1, Darshana%Jhala%NULL%1, Valerianna%Amorosa%NULL%1, Mary%Hofmann%NULL%1, Jeffrey B%Doyon%NULL%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[James L.%Rudolph%NULL%0, Christopher W.%Halladay%NULL%2, Malisa%Barber%NULL%1, Kevin W.%McConeghy%NULL%1, Vince%Mor%NULL%1, Aman%Nanda%NULL%1, Stefan%Gravenstein%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>In a hospital affiliated long term care facility, we found an opportunity to interrupt a potential outbreak of COVID-19 using a point prevalence testing containment strategy and applying infection prevention and control best practices.
+ Three serial point prevalence studies were conducted on all residents and employees in 14-day intervals and percent positive was used as marker for effective infection control efforts.
+ A multidisciplinary strike team from acute care was used to disseminate infection control education and support to long term care partners.
+ These results highlight the need for swift identification and action in congregant high risk settings to prevent rapid spread and large scale outbreaks of COVID-19.</t>
+  </si>
+  <si>
+    <t>[Paula%Eckardt%NULL%0, Rachel%Guran%NULL%1, Jon%Hennemyre%NULL%1, Roshan%Arikupurathu%NULL%1, Julie%Poveda%NULL%1, Nancimae%Miller%NULL%1, Randy%Katz%NULL%1, Judith%Frum%NULL%1]</t>
+  </si>
+  <si>
+    <t>Association for Professionals in Infection Control and Epidemiology, Inc. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>Mass Screening for SARS-CoV-2 Infection among Residents and Staff in Twenty-eight Long-term Care Facilities in Fulton County, Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="P1"&gt;Mass screening for SARS-CoV-2 infection in long-term care facilities revealed significantly higher prevalence of infection in facilities that screened in response to a known infection compared to those that screened as a prevention measure.
+ “Response” facilities had a SARS-CoV-2 prevalence of 28.9% while “preventive” facilities’ prevalence was 1.6% (p &amp;lt;0.001).
+</t>
+  </si>
+  <si>
+    <t>[Carson%Telford%NULL%0, Udodirim%Onwubiko%NULL%1, David%Holland%NULL%1, Kim%Turner%NULL%2, Juliana%Prieto%NULL%2, Sasha%Smith%NULL%2, Jane%Yoon%NULL%1, Wecheeta%Brown%NULL%1, Allison%Chamberlain%NULL%1, Neel%Gandhi%NULL%1, Shamimul%Khan%NULL%1, Steve%Williams%NULL%1, Fazle%Khan%NULL%1, Sarita%Shah%NULL%2]</t>
+  </si>
+  <si>
+    <t>PMC7340197</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t>[Sandra M.%Shi%NULL%0, Innokentiy%Bakaev%NULL%1, Helen%Chen%NULL%1, Thomas G.%Travison%NULL%1, Sarah D.%Berry%NULL%1]</t>
+  </si>
+  <si>
+    <t>AMDA - The Society for Post-Acute and Long-Term Care Medicine.</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%0, Dustin W.%Currie%NULL%0, Shauna%Clark%NULL%0, Sargis%Pogosjans%NULL%0, Meagan%Kay%NULL%0, Noah G.%Schwartz%NULL%0, James%Lewis%NULL%0, Atar%Baer%NULL%0, Vance%Kawakami%NULL%0, Margaret D.%Lukoff%NULL%0, Jessica%Ferro%NULL%0, Claire%Brostrom-Smith%NULL%0, Thomas D.%Rea%NULL%1, Michael R.%Sayre%NULL%1, Francis X.%Riedo%NULL%0, Denny%Russell%NULL%0, Brian%Hiatt%NULL%0, Patricia%Montgomery%NULL%0, Agam K.%Rao%NULL%0, Eric J.%Chow%NULL%0, Farrell%Tobolowsky%NULL%0, Michael J.%Hughes%NULL%1, Ana C.%Bardossy%NULL%0, Lisa P.%Oakley%NULL%0, Jesica R.%Jacobs%NULL%0, Nimalie D.%Stone%NULL%1, Sujan C.%Reddy%NULL%0, John A.%Jernigan%NULL%0, Margaret A.%Honein%NULL%0, Thomas A.%Clark%NULL%0, Jeffrey S.%Duchin%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>Nursing homes have become “ground zero” for the coronavirus disease 2019 (COVID‐19) epidemic in North America, with homes experiencing widespread outbreaks, resulting in severe morbidity and mortality among their residents.
+ This article describes a 371‐bed acute‐care hospital's emergency response to a 126‐bed nursing home experiencing a COVID‐19 outbreak in Toronto, Canada.
+ Like other healthcare system responses to COVID‐19 outbreaks in nursing homes, this hospital–nursing home partnership can be characterized in several phases: (1) engagement, relationship, and trust building; (2) environmental scan, team building, and immediate response; (3) early‐phase response; and (4) stabilization and transition period.
+ J Am Geriatr Soc 68:1376‐1381, 2020.</t>
+  </si>
+  <si>
+    <t>[Nathan M.%Stall%nathan.stall@sinaihealth.ca%0, Carolyn%Farquharson%NULL%2, Carolyn%Farquharson%NULL%0, Chris%Fan‐Lun%NULL%1, Lesley%Wiesenfeld%NULL%1, Carla A.%Loftus%NULL%1, Dylan%Kain%NULL%1, Jennie%Johnstone%NULL%1, Liz%McCreight%NULL%1, Russell D.%Goldman%NULL%1, Ramona%Mahtani%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[Hubert%Blain%NULL%0, Yves%Rolland%NULL%1, Edouard%Tuaillon%NULL%1, Nadia%Giacosa%NULL%1, Mylène%Albrand%NULL%1, Audrey%Jaussent%NULL%1, Athanase%Benetos%NULL%1, Stéphanie%Miot%NULL%1, Jean%Bousquet%NULL%1]</t>
+  </si>
+  <si>
+    <t>Coronavirus Disease 2019 Outcomes in French Nursing Homes That Implemented Staff Confinement With Residents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question
+Was self-confinement of staff members with residents in French nursing homes during the coronavirus disease 2019 (COVID-19) pandemic associated with better outcomes related to COVID-19 compared with overall national outcomes?
+Findings
+This cohort study including 17 nursing homes with staff self-confinement and 9513 nursing homes in a national survey found that nursing homes with staff self-confinement experienced lower mortality related to COVID-19 among residents and lower incidence of COVID-19 among residents and staff members than rates recorded in a national survey.
+Meaning
+These findings suggest that self-confinement of nursing home staff members with residents may help protect residents from mortality related to COVID-19 and residents and staff from COVID-19 infection.
+</t>
+  </si>
+  <si>
+    <t>[Joël%Belmin%NULL%1, Nathavy%Um-Din%NULL%1, Cristiano%Donadio%NULL%1, Maurizio%Magri%NULL%1, Quoc Duy%Nghiem%NULL%1, Bruno%Oquendo%NULL%1, Sylvie%Pariel%NULL%1, Carmelo%Lafuente-Lafuente%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7426749</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Guillaume%Sacco%NULL%0, Gonzague%Foucault%NULL%1, Olivier%Briere%NULL%1, Cédric%Annweiler%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[R.%Guery%NULL%0, C.%Delaye%NULL%1, N.%Brule%NULL%1, V.%Nael%NULL%1, L.%Castain%NULL%1, F.%Raffi%NULL%1, L.%De Decker%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>[A.%Klein%anke.klein@uke.de%0, C.%Edler%NULL%1, A.%Fitzek%NULL%1, D.%Fröb%NULL%1, A.%Heinemann%NULL%1, K.%Meißner%NULL%1, H.%Mushumba%NULL%1, K.%Püschel%NULL%1, A. S.%Schröder%NULL%1, J. P.%Sperhake%NULL%1, F.%Ishorst-Witte%NULL%1, M.%Aepfelbacher%NULL%1, F.%Heinrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer Medizin</t>
+  </si>
+  <si>
+    <t>[Gwendolyn L%Gilbert%lyn.gilbert@sydney.edu.au%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Sean P%Kennelly%Sean.Kennelly@tuh.ie%0, Adam H%Dyer%dyera@tcd.ie%1, Claire%Noonan%claire.noonan@tuh.ie%2, Claire%Noonan%claire.noonan@tuh.ie%0, Ruth%Martin%ruth.martin1@hse.ie%1, Siobhan M%Kennelly%siobhan.kennelly1@hse.ie%1, Alan%Martin%alanmartin@beaumont.ie%1, Desmond%O’Neill%NULL%1, Aoife%Fallon%aoife.fallon1@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%Nouvenne%NULL%0, Andrea%Ticinesi%NULL%1, Alberto%Parise%NULL%1, Beatrice%Prati%NULL%1, Marcello%Esposito%NULL%1, Valentina%Cocchi%NULL%1, Emanuele%Crisafulli%NULL%1, Annalisa%Volpi%NULL%1, Sandra%Rossi%NULL%4, Elena Giovanna%Bignami%NULL%1, Marco%Baciarello%NULL%1, Ettore%Brianti%NULL%1, Massimo%Fabi%NULL%1, Tiziana%Meschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicola%Veronese%NULL%0, Luca Gino%Sbrogiò%NULL%1, Roberto%Valle%NULL%1, Laura%Marin%NULL%1, Elena%Boscolo Fiore%NULL%1, Andrea%Tiozzo%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We aimed to assess the contribution of a- and presymptomatic residents and healthcare workers in transmission of SARS-CoV-2 in nursing homes.
+ We conducted two serial point-prevalence surveys, including standardized symptom assessment and nasopharyngeal and oropharyngeal testing for SARS-CoV-2, among 297 residents and 542 healthcare workers of three Dutch nursing homes (NHs) with recent SARS-CoV-2 introduction.
+ At the first point-prevalence survey, 15 residents tested positive of which one was presymptomatic and three remained asymptomatic.
+ At the second point-prevalence survey one resident and one healthcare worker tested SARS-CoV-2 positive and both remained asymptomatic.
+ Although a limited number of SARS-CoV-2 positive cases were identified, this study confirms a- and presymptomatic occurrence of Covid-19. We additionally describe factors that may contribute to the prevention of transmission.
+ Taken together, our study complements the discussion on effective SARS-CoV-2 screening in NHs.
+</t>
+  </si>
+  <si>
+    <t>[Laura W.%van Buul%NULL%0, Judith H.%van den Besselaar%NULL%2, Judith H.%van den Besselaar%NULL%0, Fleur M. H. P. H.%Koene%NULL%1, Bianca M.%Buurman%NULL%1, Cees M. P. M.%Hertogh%NULL%1, Martin%Smalbrugge%NULL%1, Jeanine J. S.%Rutten%NULL%1, Elke M.%den Boogert%NULL%1, Michel D.%Wissing%NULL%1, Ariene%Rietveld%NULL%1, Mariska W. W.%van Elsakker%NULL%1, Marga M. G.%Nonneman%NULL%1, Florien%van Eeden%NULL%1, Saskia%van de Merwe%NULL%1, Sophie L.%Niemansburg%NULL%1, Ewout%Fanoy%NULL%1, Hinke S.%Bootsma%NULL%1, Nicoline%van der Hagen%NULL%1, Mariska%Petrignani%NULL%1, Jessica Edwards%van Muijen%NULL%1, Karolien E. M.%Biesheuvel%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study describes the epidemiological characteristics of coronavirus disease 2019 (COVID-19) based on reported cases from long-term care facilities.
+ As of April 20th, 2020, 3 long-term care facilities in a metropolitan area of South Korea had reported cases of COVID-19. These facilities’ employees were presumed to be the sources of infection.
+ There were 2 nursing hospitals that did not report any additional cases.
+ One nursing home had a total of 25 cases, with an attack rate of 51.4% (95% CI 35.6–67.0), and a fatality rate of 38.9% (95% CI 20.3–61.4) among residents.
+ The results from this study suggest that early detection and maintenance of infection control minimizes the risk of rapid transmission.
+</t>
+  </si>
+  <si>
+    <t>[Shin Young%Park%NULL%0, Gawon%Choi%NULL%2, Gawon%Choi%NULL%0, Hyeyoung%Lee%NULL%2, Hyeyoung%Lee%NULL%0, Na-young%Kim%NULL%3, Na-young%Kim%NULL%0, Seon-young%Lee%NULL%2, Seon-young%Lee%NULL%0, Kyungnam%Kim%NULL%2, Kyungnam%Kim%NULL%0, Soyoung%Shin%NULL%2, Soyoung%Shin%NULL%0, Eunsu%Jang%NULL%2, Eunsu%Jang%NULL%0, YoungSin%Moon%NULL%2, YoungSin%Moon%NULL%0, KwangHwan%Oh%NULL%2, KwangHwan%Oh%NULL%0, JaeRin%Choi%NULL%2, JaeRin%Choi%NULL%0, Sangeun%Lee%NULL%2, Sangeun%Lee%NULL%0, Young-Man%Kim%NULL%2, Young-Man%Kim%NULL%0, Jieun%Kim%NULL%2, Jieun%Kim%NULL%0, Seonju%Yi%NULL%2, Seonju%Yi%NULL%0, Jin%Gwack%NULL%2, Jin%Gwack%NULL%0, Ok%Park%NULL%2, Ok%Park%NULL%0, Young Joon%Park%NULL%2, Young Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>Korea Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Rok%Song%NULL%0, Hee-Sook%Kim%NULL%2, Hee-Sook%Kim%NULL%0, Seok-Ju%Yoo%NULL%2, Seok-Ju%Yoo%NULL%0, Kwan%Lee%NULL%2, Kwan%Lee%NULL%0, Ji-Hyuk%Park%NULL%2, Ji-Hyuk%Park%NULL%0, Joon Ho%Jang%NULL%2, Joon Ho%Jang%NULL%0, Gyoung-Sook%Ahn%NULL%2, Gyoung-Sook%Ahn%NULL%0, Jun-Nyun%Kim%NULL%2, Jun-Nyun%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the coronavirus disease pandemic in Spain, from April 10–24, 2020, a total of 5,869 persons were screened for severe acute respiratory syndrome coronavirus 2 at nursing homes.
+ Among residents, 768 (23.9%) tested positive; among staff, 403 (15.2%).
+ Of those testing positive, 69.7% of residents and 55.8% of staff were asymptomatic.
+</t>
+  </si>
+  <si>
+    <t>[Blanca%Borras-Bermejo%NULL%0, Xavier%Martínez-Gómez%NULL%1, María Gutierrez%San Miguel%NULL%1, Juliana%Esperalba%NULL%1, Andrés%Antón%NULL%1, Elisabet%Martin%NULL%1, Marta%Selvi%NULL%1, María José%Abadías%NULL%1, Antonio%Román%NULL%1, Tomàs%Pumarola%NULL%1, Magda%Campins%NULL%1, Benito%Almirante%NULL%2]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[M.%Bernabeu-Wittel%NULL%0, J.E.%Ternero-Vega%NULL%1, P.%Díaz-Jiménez%NULL%1, C.%Conde-Guzmán%NULL%1, M.D.%Nieto-Martín%NULL%1, L.%Moreno-Gaviño%NULL%1, J.%Delgado-Cuesta%NULL%1, M.%Rincón-Gómez%NULL%1, L.%Giménez-Miranda%NULL%1, M.D.%Navarro-Amuedo%NULL%1, M.M.%Muñoz-García%NULL%1, S.%Calzón-Fernández%NULL%1, M.%Ollero-Baturone%NULL%1]</t>
+  </si>
+  <si>
+    <t>Background: Care homes are experiencing large outbreaks of COVID-19 associated with high case-fatality rates.
+ We conducted detailed investigations in six London care homes reporting suspected COVID-19 outbreaks during April 2020.</t>
+  </si>
+  <si>
+    <t>[Shamez N%Ladhani%shamez.ladhani@phe.gov.uk%0, J.Yimmy%Chow%NULL%1, Roshni%Janarthanan%NULL%1, Jonathan%Fok%NULL%1, Emma%Crawley-Boevey%NULL%1, Amoolya%Vusirikala%NULL%1, Elena%Fernandez%NULL%1, Marina Sanchez%Perez%NULL%1, Suzanne%Tang%NULL%1, Kate%Dun-Campbell%NULL%1, Edward Wynne-%Evans%NULL%1, Anita%Bell%NULL%1, Bharat%Patel%NULL%1, Zahin%Amin-Chowdhury%NULL%1, Felicity%Aiano%NULL%1, Karthik%Paranthaman%NULL%1, Thomas%Ma%NULL%1, Maria%Saavedra-Campos%NULL%1, Richard%Myers%NULL%1, Joanna%Ellis%NULL%2, Angie%Lackenby%NULL%1, Robin%Gopal%NULL%1, Monika%Patel%NULL%1, Colin%Brown%NULL%1, Meera%Chand%NULL%2, Kevin%Brown%NULL%1, Mary E%Ramsay%NULL%1, Susan%Hopkins%NULL%2, Nandini%Shetty%NULL%1, Maria%Zambon%NULL%3]</t>
+  </si>
+  <si>
+    <t>[N.S.N.%Graham%NULL%0, C.%Junghans%NULL%1, R.%Downes%NULL%1, C.%Sendall%NULL%1, H.%Lai%NULL%1, A.%McKirdy%NULL%1, P.%Elliott%NULL%1, R.%Howard%NULL%1, D.%Wingfield%NULL%1, M.%Priestman%NULL%1, M.%Ciechonska%NULL%1, L.%Cameron%NULL%1, M.%Storch%NULL%1, M.A.%Crone%NULL%1, P.S.%Freemont%NULL%1, P.%Randell%NULL%1, R.%McLaren%NULL%1, N.%Lang%NULL%1, S.%Ladhani%NULL%1, F.%Sanderson%NULL%1, D.J.%Sharp%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of The British Infection Association.</t>
+  </si>
+  <si>
+    <t>[Agnes%Marossy%agnesmarossy@nhs.net%0, Stefan%Rakowicz%NULL%1, Angela%Bhan%NULL%1, Sarah%Noon%NULL%1, Amanda%Rees%NULL%1, Manjinder%Virk%NULL%1, Ayazali%Nazafi%NULL%1, Evie%Hay%NULL%1, Louise%de Thomasson%NULL%1, Christina%Windle%NULL%1, Mark%Zuckerman%Mark.Zuckerman@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Laura%Shallcross%NULL%0, Danielle%Burke%NULL%1, Owen%Abbott%NULL%1, Alasdair%Donaldson%NULL%1, Gemma%Hallatt%NULL%1, Andrew%Hayward%NULL%2, Susan%Hopkins%NULL%0, Maria%Krutikov%NULL%1, Katie%Sharp%NULL%1, Leone%Wardman%NULL%1, Sapphira%Thorne%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Mahesh C%Patel%mp3@uic.edu%0, Lelia H%Chaisson%NULL%1, Scott%Borgetti%NULL%1, Deborah%Burdsall%NULL%1, Rashmi K%Chugh%NULL%1, Christopher R%Hoff%NULL%1, Elizabeth B%Murphy%NULL%1, Emily A%Murskyj%NULL%1, Shannon%Wilson%NULL%1, Joe%Ramos%NULL%1, Lynn%Akker%NULL%1, Debra%Bryars%NULL%1, Evonda%Thomas-Smith%NULL%1, Susan C%Bleasdale%NULL%1, Ngozi O%Ezike%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Temkin‐Greener%helena_temkin-greener@urmc.rochester.edu%0, Wenhan%Guo%NULL%2, Wenhan%Guo%NULL%0, Yunjiao%Mao%NULL%1, Xueya%Cai%NULL%1, Yue%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+id="Par1"&gt;Skilled nursing facilities (SNFs) are high-risk settings for SARS-CoV-2 transmission.
+ Infection rates among employees are infrequently described.
+Objective
+id="Par2"&gt;To describe SARS-CoV-2 rates among SNF employees and residents during a non-outbreak time period, we measured cross-sectional SARS-CoV-2 prevalence across multiple sites in the Seattle area.
+Design
+id="Par3"&gt;SARS-CoV-2 testing was performed for SNF employees and residents using quantitative real-time reverse transcription polymerase chain reaction.
+ A subset of employees completed a sociodemographic and symptom questionnaire.
+Participants
+id="Par4"&gt;Between March 29 and May 13, 2020, we tested 1583 employees and 1208 residents at 16 SNFs for SARS-CoV-2.
+Main Measure
+id="Par5"&gt;SARS-CoV-2 testing results and symptom report among employees and residents.
+Key Results
+id="Par6"&gt;Eleven of the 16 SNFs had one or more resident or employee test positive.
+ Overall, 46 (2.9%) employees had positive or inconclusive testing for SARS-CoV-2, and among those who completed surveys, most were asymptomatic and involved in direct patient care.
+ The majority of employees tested were female (934, 73%), and most employees were Asian (392, 30%), Black (360, 28%), or white (360, 28%).
+ Among the 1208 residents tested, 110 (9.1%) had positive or inconclusive results.
+ There was no association between the presence of positive residents and positive employees within a SNF (p = 0.62, McNemar’s test).
+Conclusions
+id="Par7"&gt;In the largest study of SNFs to date, SARS-CoV-2 infections were detected among both employees and residents.
+ Employees testing positive were often asymptomatic and involved in direct patient care.
+ Surveillance testing is needed for SNF employees and residents during the pandemic response.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-06165-7) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Ana A.%Weil%anaweil@uw.edu%0, Kira L.%Newman%NULL%4, Kira L.%Newman%NULL%0, Thuan D.%Ong%NULL%1, Giana H.%Davidson%NULL%1, Jennifer%Logue%NULL%1, Elisabeth%Brandstetter%NULL%2, Ariana%Magedson%NULL%1, Dylan%McDonald%NULL%1, Denise J.%McCulloch%NULL%0, Santiago%Neme%NULL%5, James%Lewis%NULL%0, Jeff S.%Duchin%NULL%1, Weizhi%Zhong%NULL%1, Lea M.%Starita%NULL%2, Trevor%Bedford%NULL%3, Alison C.%Roxby%NULL%1, Helen Y.%Chu%helenchu@uw.edu%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[Guillermo V.%Sanchez%NULL%0, Caitlin%Biedron%NULL%1, Lauren R.%Fink%NULL%1, Kelly M.%Hatfield%NULL%1, Jordan Micah F.%Polistico%NULL%1, Monica P.%Meyer%NULL%1, Rebecca S.%Noe%NULL%1, Casey E.%Copen%NULL%1, Amanda K.%Lyons%NULL%1, Gonzalo%Gonzalez%NULL%1, Keith%Kiama%NULL%1, Mark%Lebednick%NULL%1, Bonnie K.%Czander%NULL%1, Amen%Agbonze%NULL%1, Aimee R.%Surma%NULL%1, Avnish%Sandhu%NULL%1, Valerie H.%Mika%NULL%1, Tyler%Prentiss%NULL%1, John%Zervos%NULL%1, Donia A.%Dalal%NULL%1, Amber M.%Vasquez%NULL%1, Sujan C.%Reddy%NULL%0, John%Jernigan%NULL%1, Paul E.%Kilgore%NULL%1, Marcus J.%Zervos%NULL%2, Teena%Chopra%NULL%1, Carla P.%Bezold%NULL%1, Najibah K.%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 can cause significant mortality in the elderly in Long Term Care Facilities (LTCF).
+ We describe four LTCF outbreaks where mass testing identified a high proportion of asymptomatic infections (4-41% in health care workers and 20-75% in residents), indicating that symptom-based screening alone is insufficient for monitoring for COVID-19 transmission.
+</t>
+  </si>
+  <si>
+    <t>[Janice K%Louie%Janice.louie@sfdph.org%0, Hyman M%Scott%NULL%1, Amie%DuBois%NULL%1, Natalya%Sturtz%NULL%1, Wendy%Lu%NULL%1, Juliet%Stoltey%NULL%2, Godfred%Masinde%NULL%1, Stephanie%Cohen%NULL%3, Darpun%Sachdev%NULL%1, Susan%Philip%NULL%1, Naveena%Bobba%NULL%2, Tomas%Aragon%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High rates of asymptomatic infection suggest benefits to routine testing in congregate care settings.
+ SARS-CoV-2 screening was undertaken in a single nursing facility without a known case of COVID-19, demonstrating an 85% prevalence among residents and 37% among staff.
+ Serology was not helpful in identifying infections.
+</t>
+  </si>
+  <si>
+    <t>[Scott A%Goldberg%sagoldberg@bwh.harvard.edu%0, Jochen%Lennerz%NULL%1, Michael%Klompas%NULL%1, Eden%Mark%NULL%1, Virginia M%Pierce%NULL%1, Ryan W%Thompson%NULL%1, Charles T%Pu%NULL%1, Lauren L%Ritterhouse%NULL%1, Anand%Dighe%NULL%1, Eric S%Rosenberg%NULL%1, David C%Grabowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amy V.%Dora%NULL%0, Alexander%Winnett%NULL%3, Lauren P.%Jatt%NULL%0, Kusha%Davar%NULL%1, Mika%Watanabe%NULL%1, Linda%Sohn%NULL%1, Hannah S.%Kern%NULL%1, Christopher J.%Graber%NULL%3, Matthew B.%Goetz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin F.%Bigelow%NULL%0, Olive%Tang%NULL%1, Gregory R.%Toci%NULL%1, Norberth%Stracker%NULL%1, Fatima%Sheikh%NULL%1, Kara M.%Jacobs Slifka%NULL%1, Shannon A.%Novosad%NULL%1, John A.%Jernigan%NULL%0, Sujan C.%Reddy%NULL%0, Morgan J.%Katz%NULL%1]</t>
+  </si>
+  <si>
+    <t>Our analysis of coronavirus disease prevalence in 9 long-term care facilities demonstrated a high proportion (40.7%) of asymptomatic infections among residents and staff members.
+ Infection control measures in congregate settings should include mass testing–based strategies in concert with symptom screening for greater effectiveness in preventing the spread of severe acute respiratory syndrome coronavirus 2.</t>
+  </si>
+  <si>
+    <t>[Matt%Feaster%NULL%0, Ying-Ying%Goh%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residents of congregate care settings have been severely impacted by the current Coronavirus disease 2019 (COVID-19) pandemic.
+ In this report, we describe the methods our home-based primary care practice has developed to mitigate the spread of COVID-19 in assisted living facilities (ALFs) and we present an initial evaluation of this innovation.
+ Shortly after the first COVID-19 case was reported in the United States, our organization assembled an outbreak committee, designed to support the 1794 ALF residents and the 101 communities in which they reside.
+ The committee led the development and deployment of a comprehensive COVID-19 prevention and suppression strategy.
+ The average age of the cohort was 83 ± 11 years, and 74% were female.
+ Seven individuals (0.4% of census) tested positive for SARS-CoV-2. The positive individuals were located in 3 ALFs, representing 3% of our total number of ALFs.
+ There has been 1 death.
+ Home-based primary care-led outbreak mitigation may be an enabler to suppress COVID-19 in ALFs.
+</t>
+  </si>
+  <si>
+    <t>[William R.%Mills%NULL%0, Janet M.%Buccola%NULL%1, Susan%Sender%NULL%1, Joseph%Lichtefeld%NULL%1, Nicholas%Romano%NULL%1, Karen%Reynolds%NULL%1, Melissa%Price%NULL%1, Jennifer%Phipps%NULL%1, Leigh%White%NULL%1, Shauen%Howard%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Inc. on behalf of AMDA - The Society for Post-Acute and Long-Term Care Medicine.</t>
   </si>
 </sst>
 </file>
@@ -3228,10 +3713,10 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>899</v>
       </c>
       <c r="E2" t="s">
-        <v>794</v>
+        <v>900</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -3243,10 +3728,10 @@
         <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3263,7 +3748,7 @@
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>795</v>
+        <v>902</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
@@ -3275,10 +3760,10 @@
         <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3292,10 +3777,10 @@
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>904</v>
       </c>
       <c r="E4" t="s">
-        <v>796</v>
+        <v>905</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
@@ -3307,10 +3792,10 @@
         <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3353,28 +3838,28 @@
         <v>44014</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>907</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>908</v>
       </c>
       <c r="E6" t="s">
-        <v>797</v>
+        <v>909</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>910</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3391,7 +3876,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>798</v>
+        <v>912</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -3403,10 +3888,10 @@
         <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3423,7 +3908,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>914</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -3435,10 +3920,10 @@
         <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3449,7 +3934,7 @@
         <v>44044</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -3458,16 +3943,16 @@
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
         <v>95</v>
@@ -3484,10 +3969,10 @@
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>916</v>
       </c>
       <c r="E10" t="s">
-        <v>800</v>
+        <v>917</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -3499,10 +3984,10 @@
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>918</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3513,25 +3998,25 @@
         <v>44060</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>801</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
         <v>95</v>
@@ -3551,7 +4036,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>802</v>
+        <v>919</v>
       </c>
       <c r="F12" t="s">
         <v>89</v>
@@ -3563,10 +4048,10 @@
         <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>913</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3577,28 +4062,28 @@
         <v>44046</v>
       </c>
       <c r="C13" t="s">
-        <v>461</v>
+        <v>920</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>921</v>
       </c>
       <c r="E13" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>923</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>463</v>
+        <v>924</v>
       </c>
       <c r="I13" t="s">
         <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>551</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3615,7 +4100,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>804</v>
+        <v>926</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -3627,10 +4112,10 @@
         <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>927</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3647,7 +4132,7 @@
         <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>805</v>
+        <v>928</v>
       </c>
       <c r="F15" t="s">
         <v>96</v>
@@ -3659,10 +4144,10 @@
         <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>929</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3679,7 +4164,7 @@
         <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>806</v>
+        <v>930</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3691,10 +4176,10 @@
         <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>467</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3705,25 +4190,25 @@
         <v>44652</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>807</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
         <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
         <v>95</v>
@@ -3743,7 +4228,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>932</v>
       </c>
       <c r="F18" t="s">
         <v>103</v>
@@ -3755,10 +4240,10 @@
         <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3769,28 +4254,28 @@
         <v>43922</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
         <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>557</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3807,7 +4292,7 @@
         <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>808</v>
+        <v>934</v>
       </c>
       <c r="F20" t="s">
         <v>106</v>
@@ -3819,10 +4304,10 @@
         <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>901</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3839,7 +4324,7 @@
         <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>809</v>
+        <v>935</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -3851,10 +4336,10 @@
         <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>913</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3871,7 +4356,7 @@
         <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>810</v>
+        <v>936</v>
       </c>
       <c r="F22" t="s">
         <v>113</v>
@@ -3883,10 +4368,10 @@
         <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3897,7 +4382,7 @@
         <v>44153</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -3906,16 +4391,16 @@
         <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
         <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="J23" t="s">
         <v>95</v>
@@ -3929,25 +4414,25 @@
         <v>44092</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>811</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>474</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
         <v>95</v>
@@ -3964,10 +4449,10 @@
         <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>937</v>
       </c>
       <c r="E25" t="s">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -3979,10 +4464,10 @@
         <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>939</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3993,25 +4478,25 @@
         <v>44000</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>813</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
         <v>62</v>
       </c>
       <c r="I26" t="s">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s">
         <v>95</v>
@@ -4028,10 +4513,10 @@
         <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>940</v>
       </c>
       <c r="E27" t="s">
-        <v>814</v>
+        <v>941</v>
       </c>
       <c r="F27" t="s">
         <v>123</v>
@@ -4043,10 +4528,10 @@
         <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>942</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4063,7 +4548,7 @@
         <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>815</v>
+        <v>943</v>
       </c>
       <c r="F28" t="s">
         <v>127</v>
@@ -4075,10 +4560,10 @@
         <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -4092,10 +4577,10 @@
         <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>944</v>
       </c>
       <c r="E29" t="s">
-        <v>816</v>
+        <v>945</v>
       </c>
       <c r="F29" t="s">
         <v>131</v>
@@ -4107,10 +4592,10 @@
         <v>62</v>
       </c>
       <c r="I29" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -4127,7 +4612,7 @@
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>817</v>
+        <v>947</v>
       </c>
       <c r="F30" t="s">
         <v>133</v>
@@ -4139,10 +4624,10 @@
         <v>134</v>
       </c>
       <c r="I30" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>927</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -4156,10 +4641,10 @@
         <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>948</v>
       </c>
       <c r="E31" t="s">
-        <v>818</v>
+        <v>949</v>
       </c>
       <c r="F31" t="s">
         <v>137</v>
@@ -4171,10 +4656,10 @@
         <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>903</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -4191,7 +4676,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>819</v>
+        <v>950</v>
       </c>
       <c r="F32" t="s">
         <v>141</v>
@@ -4203,10 +4688,10 @@
         <v>142</v>
       </c>
       <c r="I32" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>951</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -4223,7 +4708,7 @@
         <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>820</v>
+        <v>952</v>
       </c>
       <c r="F33" t="s">
         <v>145</v>
@@ -4235,10 +4720,10 @@
         <v>62</v>
       </c>
       <c r="I33" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -4255,7 +4740,7 @@
         <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>821</v>
+        <v>953</v>
       </c>
       <c r="F34" t="s">
         <v>148</v>
@@ -4267,10 +4752,10 @@
         <v>62</v>
       </c>
       <c r="I34" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>954</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -4281,25 +4766,25 @@
         <v>44049</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>822</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>474</v>
+        <v>95</v>
       </c>
       <c r="J35" t="s">
         <v>95</v>
@@ -4319,7 +4804,7 @@
         <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>823</v>
+        <v>955</v>
       </c>
       <c r="F36" t="s">
         <v>154</v>
@@ -4331,10 +4816,10 @@
         <v>155</v>
       </c>
       <c r="I36" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J36" t="s">
-        <v>95</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -4351,7 +4836,7 @@
         <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>824</v>
+        <v>956</v>
       </c>
       <c r="F37" t="s">
         <v>158</v>
@@ -4363,10 +4848,10 @@
         <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -4380,10 +4865,10 @@
         <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>957</v>
       </c>
       <c r="E38" t="s">
-        <v>825</v>
+        <v>958</v>
       </c>
       <c r="F38" t="s">
         <v>161</v>
@@ -4395,10 +4880,10 @@
         <v>162</v>
       </c>
       <c r="I38" t="s">
-        <v>467</v>
+        <v>95</v>
       </c>
       <c r="J38" t="s">
-        <v>95</v>
+        <v>959</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -4415,7 +4900,7 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>826</v>
+        <v>960</v>
       </c>
       <c r="F39" t="s">
         <v>164</v>
@@ -4427,10 +4912,10 @@
         <v>62</v>
       </c>
       <c r="I39" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J39" t="s">
-        <v>95</v>
+        <v>946</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -4444,10 +4929,10 @@
         <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>961</v>
       </c>
       <c r="E40" t="s">
-        <v>827</v>
+        <v>962</v>
       </c>
       <c r="F40" t="s">
         <v>167</v>
@@ -4459,10 +4944,10 @@
         <v>62</v>
       </c>
       <c r="I40" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>901</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -4476,10 +4961,10 @@
         <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>963</v>
       </c>
       <c r="E41" t="s">
-        <v>828</v>
+        <v>964</v>
       </c>
       <c r="F41" t="s">
         <v>170</v>
@@ -4491,10 +4976,10 @@
         <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>901</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -4511,7 +4996,7 @@
         <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>829</v>
+        <v>965</v>
       </c>
       <c r="F42" t="s">
         <v>172</v>
@@ -4523,10 +5008,10 @@
         <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>946</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -4543,7 +5028,7 @@
         <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>830</v>
+        <v>966</v>
       </c>
       <c r="F43" t="s">
         <v>174</v>
@@ -4555,10 +5040,10 @@
         <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J43" t="s">
-        <v>95</v>
+        <v>946</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -4572,10 +5057,10 @@
         <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>967</v>
       </c>
       <c r="E44" t="s">
-        <v>831</v>
+        <v>968</v>
       </c>
       <c r="F44" t="s">
         <v>177</v>
@@ -4587,10 +5072,10 @@
         <v>62</v>
       </c>
       <c r="I44" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>946</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -4604,10 +5089,10 @@
         <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>969</v>
       </c>
       <c r="E45" t="s">
-        <v>832</v>
+        <v>970</v>
       </c>
       <c r="F45" t="s">
         <v>180</v>
@@ -4619,10 +5104,10 @@
         <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>971</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -4633,28 +5118,28 @@
         <v>44197</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
-        <v>584</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
         <v>95</v>
       </c>
       <c r="J46" t="s">
-        <v>585</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -4665,28 +5150,28 @@
         <v>44197</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="I47" t="s">
         <v>95</v>
       </c>
       <c r="J47" t="s">
-        <v>587</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
